--- a/devices.xlsx
+++ b/devices.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1613927246" val="978" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1613927246" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1613927246"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1613927246"/>
+      <pm:revision xmlns:pm="smNativeData" day="1613934468" val="978" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1613934468" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1613934468"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1613934468"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>plength</t>
   </si>
   <si>
+    <t>comments</t>
+  </si>
+  <si>
     <t>guide catheters</t>
   </si>
   <si>
@@ -53,6 +56,111 @@
   </si>
   <si>
     <t>Stryker</t>
+  </si>
+  <si>
+    <t>5F Catalyst</t>
+  </si>
+  <si>
+    <t>120 / 137</t>
+  </si>
+  <si>
+    <t>REACT 68</t>
+  </si>
+  <si>
+    <t>Medtronic</t>
+  </si>
+  <si>
+    <t>REACT 71</t>
+  </si>
+  <si>
+    <t>Cerebrase DA</t>
+  </si>
+  <si>
+    <t>Cerenovus</t>
+  </si>
+  <si>
+    <t>80 / 90 / 95</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>70 / 80 / 90</t>
+  </si>
+  <si>
+    <t>Jet 7 Reperfusion Catheter</t>
+  </si>
+  <si>
+    <t>Penumbra</t>
+  </si>
+  <si>
+    <t>Jet D Reperfusion Catheter</t>
+  </si>
+  <si>
+    <t>ACE 68</t>
+  </si>
+  <si>
+    <t>ACE 60</t>
+  </si>
+  <si>
+    <t>Microcatheters</t>
+  </si>
+  <si>
+    <t>3MAX</t>
+  </si>
+  <si>
+    <t>Fargo Max</t>
+  </si>
+  <si>
+    <t>Balt</t>
+  </si>
+  <si>
+    <t>95 / 105 / 115 / 125</t>
+  </si>
+  <si>
+    <t>Fargo</t>
+  </si>
+  <si>
+    <t>105 / 115 / 125 / 135</t>
+  </si>
+  <si>
+    <t>Fargo Mini</t>
+  </si>
+  <si>
+    <t>120 / 135</t>
+  </si>
+  <si>
+    <t>Ballast</t>
+  </si>
+  <si>
+    <t>80 / 90 / 100</t>
+  </si>
+  <si>
+    <t>Magic 1.2</t>
+  </si>
+  <si>
+    <t>165 / 180</t>
+  </si>
+  <si>
+    <t>Headway Duo 156</t>
+  </si>
+  <si>
+    <t>Microvention</t>
+  </si>
+  <si>
+    <t>Balloons</t>
+  </si>
+  <si>
+    <t>Copernic 8 RC Venous</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Copernic 10 RC Venous</t>
+  </si>
+  <si>
+    <t>Eclipse 6</t>
   </si>
 </sst>
 </file>
@@ -77,7 +185,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1613927246" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1613934468" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -99,7 +207,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1613927246" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1613934468" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -121,7 +229,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613927246"/>
+          <pm:border xmlns:pm="smNativeData" id="1613934468"/>
         </ext>
       </extLst>
     </border>
@@ -140,7 +248,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613927246"/>
+          <pm:border xmlns:pm="smNativeData" id="1613934468"/>
         </ext>
       </extLst>
     </border>
@@ -157,7 +265,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1613927246" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1613934468" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -421,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -432,7 +540,7 @@
     <col min="1" max="7" width="10.000000" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,19 +562,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>0.06</v>
@@ -476,13 +587,450 @@
       </c>
       <c r="G2" t="n">
         <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0580000000000000071</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0729999999999999982</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0680000000000000071</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0830000000000000071</v>
+      </c>
+      <c r="G4" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0709999999999999964</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0855000000000000071</v>
+      </c>
+      <c r="G5" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.105000000000000004</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0879999999999999893</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.105000000000000004</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0719999999999999929</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="G8" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0540000000000000036</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0680000000000000071</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G10" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G11" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0350000000000000044</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0620000000000000018</v>
+      </c>
+      <c r="G12" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0700000000000000089</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0787400000000000055</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0580000000000000071</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0787400000000000055</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0551180000000000003</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0879999999999999893</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.106000000000000005</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0354329999999999989</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0165000000000000018</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0275590000000000002</v>
+      </c>
+      <c r="G18" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0140000000000000018</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0570870000000000033</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0140000000000000018</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.065616999999999992</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0170000000000000018</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0262469999999999981</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1613927246" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1613934468" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -491,14 +1039,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1613927246" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1613927246" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1613934468" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1613934468" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1613927246" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1613934468" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
